--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value2978.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value2978.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.195571303133239</v>
+        <v>1.7231684923172</v>
       </c>
       <c r="B1">
-        <v>2.507894371922969</v>
+        <v>2.682357311248779</v>
       </c>
       <c r="C1">
-        <v>-1</v>
+        <v>2.873579740524292</v>
       </c>
       <c r="D1">
-        <v>2.260100629509065</v>
+        <v>3.239982128143311</v>
       </c>
       <c r="E1">
-        <v>1.188692163715338</v>
+        <v>2.600570201873779</v>
       </c>
     </row>
   </sheetData>
